--- a/medicine/Enfance/Håkan_Lindquist/Håkan_Lindquist.xlsx
+++ b/medicine/Enfance/Håkan_Lindquist/Håkan_Lindquist.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A5kan_Lindquist</t>
+          <t>Håkan_Lindquist</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Håkan Lindquist est un écrivain suédois né à Oskarshamn le 28 mars 1958 et mort le 15 décembre 2022 à Stockholm[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Håkan Lindquist est un écrivain suédois né à Oskarshamn le 28 mars 1958 et mort le 15 décembre 2022 à Stockholm.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A5kan_Lindquist</t>
+          <t>Håkan_Lindquist</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Håkan Lindquist commence sa carrière d'écrivain en 1993 avec Min bror och hans bror (publié en France sous le titre Mon frère et son frère, Gaïa Éditions, 2002), le récit d'un adolescent, Jonas, tentant de retracer la vie sentimentale de son frère Paul disparu avant sa naissance. Cette œuvre a été traduite en onze langues, et l'édition française a obtenu le « Prix littéraire de la Bordelaise de lunetterie ».
 Le troisième roman de l'écrivain, De collectionner les timbres, est également publié en France (Gaïa Éditions, 2004).
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%A5kan_Lindquist</t>
+          <t>Håkan_Lindquist</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Romans</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1993 - (sv) Min bror och hans bror. Publié en France sous le titre Mon frère et son frère (Gaïa Éditions, 2002)  (ISBN 978-2-910030-96-4)
 1996 - (sv) Dröm att leva. Non traduit en français.
